--- a/data/trans_bre/P10_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_2_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,03</t>
+          <t>-0,76; 3,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 5,02</t>
+          <t>0,34; 5,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,16</t>
+          <t>-1,97; 2,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 10,37</t>
+          <t>1,55; 10,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,09; 330,92</t>
+          <t>-40,03; 340,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 405,06</t>
+          <t>1,17; 411,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 201,75</t>
+          <t>-61,57; 187,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,5; —</t>
+          <t>-56,74; —</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,98</t>
+          <t>1,34; 5,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,78</t>
+          <t>0,33; 4,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,37</t>
+          <t>-1,87; 2,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,04</t>
+          <t>0,13; 6,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,98; 342,05</t>
+          <t>34,44; 329,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 263,6</t>
+          <t>2,85; 273,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,55; 97,35</t>
+          <t>-41,08; 108,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 481,36</t>
+          <t>-17,92; 427,37</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,38</t>
+          <t>-1,03; 3,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,79</t>
+          <t>3,61; 9,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,29</t>
+          <t>0,24; 4,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,81</t>
+          <t>-2,39; 2,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 114,54</t>
+          <t>-21,37; 128,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,06; 297,37</t>
+          <t>58,86; 270,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 229,35</t>
+          <t>3,2; 212,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 75,75</t>
+          <t>-35,77; 69,18</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,14</t>
+          <t>2,16; 8,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 10,06</t>
+          <t>2,74; 10,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,56</t>
+          <t>0,33; 6,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 6,72</t>
+          <t>0,06; 6,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,77; 239,16</t>
+          <t>33,2; 234,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 196,23</t>
+          <t>27,14; 196,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 135,93</t>
+          <t>1,81; 132,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 145,99</t>
+          <t>-2,67; 131,11</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 6,2</t>
+          <t>-1,59; 6,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 15,72</t>
+          <t>5,52; 15,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 14,32</t>
+          <t>6,08; 14,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,1</t>
+          <t>1,8; 7,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 109,79</t>
+          <t>-17,59; 113,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,16; 222,69</t>
+          <t>48,14; 212,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,62; 335,21</t>
+          <t>76,91; 351,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>15,99; 130,12</t>
+          <t>16,93; 120,06</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,7</t>
+          <t>-0,18; 7,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 14,84</t>
+          <t>5,27; 14,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 15,13</t>
+          <t>7,05; 15,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,61; 12,31</t>
+          <t>2,55; 12,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 75,6</t>
+          <t>-1,15; 69,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,05; 107,62</t>
+          <t>26,87; 107,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,89; 177,01</t>
+          <t>57,9; 182,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,26; 150,94</t>
+          <t>28,92; 147,83</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,53</t>
+          <t>2,05; 4,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,64</t>
+          <t>5,65; 8,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,66</t>
+          <t>4,01; 6,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,2</t>
+          <t>3,37; 6,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,81; 97,13</t>
+          <t>35,97; 96,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>76,37; 141,25</t>
+          <t>76,86; 143,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,32; 141,85</t>
+          <t>65,94; 139,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>53,07; 116,83</t>
+          <t>51,11; 118,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_2_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,1</t>
+          <t>-0,97; 3,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,01</t>
+          <t>0,49; 5,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,17</t>
+          <t>-1,97; 2,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 340,98</t>
+          <t>-45,14; 365,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 411,07</t>
+          <t>6,23; 398,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-61,57; 187,52</t>
+          <t>-63,86; 166,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,97</t>
+          <t>1,1; 5,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,82</t>
+          <t>0,11; 4,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,67</t>
+          <t>-2,04; 2,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,44; 329,31</t>
+          <t>25,68; 311,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 273,96</t>
+          <t>2,13; 246,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,08; 108,42</t>
+          <t>-43,16; 92,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,63</t>
+          <t>-1,26; 3,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 9,74</t>
+          <t>3,49; 9,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 4,83</t>
+          <t>0,15; 4,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 128,73</t>
+          <t>-24,75; 117,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,86; 270,66</t>
+          <t>56,04; 295,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 212,01</t>
+          <t>-0,92; 200,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,29</t>
+          <t>2,09; 8,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 10,2</t>
+          <t>2,85; 10,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 6,5</t>
+          <t>0,21; 6,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,2; 234,69</t>
+          <t>31,37; 253,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,14; 196,48</t>
+          <t>32,66; 208,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 132,97</t>
+          <t>1,82; 136,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 6,36</t>
+          <t>-1,64; 6,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,52; 15,64</t>
+          <t>5,98; 14,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 14,5</t>
+          <t>6,23; 14,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 113,76</t>
+          <t>-19,66; 107,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>48,14; 212,07</t>
+          <t>53,28; 203,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,91; 351,92</t>
+          <t>78,06; 340,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 7,33</t>
+          <t>-0,63; 7,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,27; 14,71</t>
+          <t>5,65; 15,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,05; 15,11</t>
+          <t>6,93; 15,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 69,17</t>
+          <t>-4,52; 69,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,87; 107,31</t>
+          <t>28,1; 105,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>57,9; 182,03</t>
+          <t>56,82; 179,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,49</t>
+          <t>2,11; 4,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,65; 8,69</t>
+          <t>5,75; 8,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,69</t>
+          <t>3,91; 6,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,97; 96,04</t>
+          <t>36,79; 97,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>76,86; 143,71</t>
+          <t>76,14; 144,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,94; 139,16</t>
+          <t>66,15; 140,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
